--- a/src/test/resources/testdata/Suite.xlsx
+++ b/src/test/resources/testdata/Suite.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="7725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8295" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Suite" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>SuiteName</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>y</t>
-  </si>
-  <si>
-    <t>n</t>
   </si>
 </sst>
 </file>
@@ -362,7 +359,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,7 +389,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
